--- a/data/trans_orig/P43E_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43E_R-Provincia-trans_orig.xlsx
@@ -623,19 +623,19 @@
         <v>151640</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>137714</v>
+        <v>137332</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>163392</v>
+        <v>163718</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7591164089843574</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6894055994600963</v>
+        <v>0.6874924676728866</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8179484023287392</v>
+        <v>0.8195830380709669</v>
       </c>
     </row>
     <row r="5">
@@ -652,19 +652,19 @@
         <v>48118</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>36366</v>
+        <v>36040</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>62044</v>
+        <v>62426</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2408835910156426</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1820515976712604</v>
+        <v>0.1804169619290334</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3105944005399032</v>
+        <v>0.3125075323271134</v>
       </c>
     </row>
     <row r="6">
@@ -714,19 +714,19 @@
         <v>290593</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>274127</v>
+        <v>272149</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>306071</v>
+        <v>306796</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7854137098165942</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.740908908526383</v>
+        <v>0.7355645884309313</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8272491985221013</v>
+        <v>0.8292072962220647</v>
       </c>
     </row>
     <row r="8">
@@ -743,19 +743,19 @@
         <v>79394</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>63916</v>
+        <v>63191</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>95860</v>
+        <v>97838</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2145862901834057</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1727508014778986</v>
+        <v>0.1707927037779353</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.259091091473617</v>
+        <v>0.2644354115690687</v>
       </c>
     </row>
     <row r="9">
@@ -805,19 +805,19 @@
         <v>141213</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>127910</v>
+        <v>128152</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>152903</v>
+        <v>153261</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7450527320935928</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6748632561548187</v>
+        <v>0.6761405248670358</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8067298789215767</v>
+        <v>0.8086215315546218</v>
       </c>
     </row>
     <row r="11">
@@ -834,19 +834,19 @@
         <v>48321</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>36631</v>
+        <v>36273</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>61624</v>
+        <v>61382</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2549472679064072</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1932701210784233</v>
+        <v>0.1913784684453782</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3251367438451813</v>
+        <v>0.3238594751329643</v>
       </c>
     </row>
     <row r="12">
@@ -896,19 +896,19 @@
         <v>186553</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>172576</v>
+        <v>171967</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>201346</v>
+        <v>199331</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7384329065056424</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6831081826482627</v>
+        <v>0.6806993968979131</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7969886924241005</v>
+        <v>0.7890139901320762</v>
       </c>
     </row>
     <row r="14">
@@ -925,19 +925,19 @@
         <v>66080</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>51287</v>
+        <v>53302</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>80057</v>
+        <v>80666</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2615670934943576</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2030113075758994</v>
+        <v>0.2109860098679238</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3168918173517373</v>
+        <v>0.3193006031020867</v>
       </c>
     </row>
     <row r="15">
@@ -987,19 +987,19 @@
         <v>106770</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>95192</v>
+        <v>96488</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>116330</v>
+        <v>116671</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.781258351044967</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6965400917931834</v>
+        <v>0.7060210351479982</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8512117585316913</v>
+        <v>0.8537066963821038</v>
       </c>
     </row>
     <row r="17">
@@ -1016,19 +1016,19 @@
         <v>29894</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20334</v>
+        <v>19993</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>41472</v>
+        <v>40176</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.218741648955033</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1487882414683087</v>
+        <v>0.1462933036178961</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3034599082068166</v>
+        <v>0.2939789648520015</v>
       </c>
     </row>
     <row r="18">
@@ -1078,19 +1078,19 @@
         <v>121685</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>109375</v>
+        <v>109749</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>131107</v>
+        <v>131253</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8081410618622993</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7263869712798561</v>
+        <v>0.7288722113615195</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8707141856215395</v>
+        <v>0.8716856355546435</v>
       </c>
     </row>
     <row r="20">
@@ -1107,19 +1107,19 @@
         <v>28889</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>19467</v>
+        <v>19321</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>41199</v>
+        <v>40825</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1918589381377007</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1292858143784607</v>
+        <v>0.1283143644453564</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2736130287201441</v>
+        <v>0.2711277886384805</v>
       </c>
     </row>
     <row r="21">
@@ -1169,19 +1169,19 @@
         <v>326247</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>305215</v>
+        <v>307556</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>344669</v>
+        <v>345245</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7569262753078495</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7081298623888141</v>
+        <v>0.7135597557074443</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7996670208020064</v>
+        <v>0.801001899743808</v>
       </c>
     </row>
     <row r="23">
@@ -1198,19 +1198,19 @@
         <v>104769</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>86347</v>
+        <v>85771</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>125801</v>
+        <v>123460</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2430737246921505</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2003329791979936</v>
+        <v>0.1989981002561921</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2918701376111859</v>
+        <v>0.2864402442925556</v>
       </c>
     </row>
     <row r="24">
@@ -1260,19 +1260,19 @@
         <v>406909</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>387567</v>
+        <v>385624</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>426027</v>
+        <v>425429</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7842397731781288</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7469612157671724</v>
+        <v>0.7432167171667717</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.821085679324302</v>
+        <v>0.8199336943164469</v>
       </c>
     </row>
     <row r="26">
@@ -1289,19 +1289,19 @@
         <v>111949</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>92831</v>
+        <v>93429</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>131291</v>
+        <v>133234</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2157602268218713</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1789143206756981</v>
+        <v>0.1800663056835534</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2530387842328275</v>
+        <v>0.2567832828332282</v>
       </c>
     </row>
     <row r="27">
@@ -1351,19 +1351,19 @@
         <v>1731610</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1688252</v>
+        <v>1689730</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1775493</v>
+        <v>1771015</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7699380370056733</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7506596909798154</v>
+        <v>0.7513167033043509</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.789450104007539</v>
+        <v>0.7874592081201731</v>
       </c>
     </row>
     <row r="29">
@@ -1380,19 +1380,19 @@
         <v>517415</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>473532</v>
+        <v>478010</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>560773</v>
+        <v>559295</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2300619629943266</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.210549895992461</v>
+        <v>0.2125407918798269</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2493403090201847</v>
+        <v>0.2486832966956492</v>
       </c>
     </row>
     <row r="30">
@@ -1564,19 +1564,19 @@
         <v>150821</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>137441</v>
+        <v>137188</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>162633</v>
+        <v>162761</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7553568656445813</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6883460544000661</v>
+        <v>0.6870798714705479</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8145195458302148</v>
+        <v>0.8151569625446967</v>
       </c>
     </row>
     <row r="5">
@@ -1593,19 +1593,19 @@
         <v>48847</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>37035</v>
+        <v>36907</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>62227</v>
+        <v>62480</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2446431343554187</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1854804541697852</v>
+        <v>0.1848430374553033</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3116539455999335</v>
+        <v>0.3129201285294521</v>
       </c>
     </row>
     <row r="6">
@@ -1655,19 +1655,19 @@
         <v>324415</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>310160</v>
+        <v>309421</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>337099</v>
+        <v>338287</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8538527475931845</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8163342588802674</v>
+        <v>0.8143884766399052</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8872354137608739</v>
+        <v>0.8903621358481602</v>
       </c>
     </row>
     <row r="8">
@@ -1684,19 +1684,19 @@
         <v>55528</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>42844</v>
+        <v>41656</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>69783</v>
+        <v>70522</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1461472524068154</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1127645862391261</v>
+        <v>0.1096378641518398</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1836657411197326</v>
+        <v>0.1856115233600948</v>
       </c>
     </row>
     <row r="9">
@@ -1746,19 +1746,19 @@
         <v>235613</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>226385</v>
+        <v>227116</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>241030</v>
+        <v>241802</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9494334956914467</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9122481175181171</v>
+        <v>0.9151936746742471</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9712605501746617</v>
+        <v>0.9743723122750855</v>
       </c>
     </row>
     <row r="11">
@@ -1775,19 +1775,19 @@
         <v>12549</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7132</v>
+        <v>6360</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21777</v>
+        <v>21046</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0505665043085533</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02873944982533825</v>
+        <v>0.02562768772491459</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08775188248188286</v>
+        <v>0.08480632532575311</v>
       </c>
     </row>
     <row r="12">
@@ -1837,19 +1837,19 @@
         <v>233829</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>220852</v>
+        <v>221079</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>243624</v>
+        <v>243005</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8815811015783553</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8326554936469776</v>
+        <v>0.8335129555183564</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9185108802278799</v>
+        <v>0.916177074264929</v>
       </c>
     </row>
     <row r="14">
@@ -1866,19 +1866,19 @@
         <v>31409</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>21614</v>
+        <v>22233</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>44386</v>
+        <v>44159</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1184188984216447</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08148911977212014</v>
+        <v>0.08382292573507089</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1673445063530225</v>
+        <v>0.1664870444816429</v>
       </c>
     </row>
     <row r="15">
@@ -1928,19 +1928,19 @@
         <v>74700</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>67488</v>
+        <v>68140</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>79509</v>
+        <v>79258</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8834006691841061</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7981081734448986</v>
+        <v>0.8058156267404571</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9402620269372511</v>
+        <v>0.9373034167491234</v>
       </c>
     </row>
     <row r="17">
@@ -1957,19 +1957,19 @@
         <v>9860</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5051</v>
+        <v>5302</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17072</v>
+        <v>16420</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.116599330815894</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05973797306274875</v>
+        <v>0.06269658325087665</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2018918265551006</v>
+        <v>0.1941843732595427</v>
       </c>
     </row>
     <row r="18">
@@ -2019,19 +2019,19 @@
         <v>45936</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>38595</v>
+        <v>38557</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>52031</v>
+        <v>52187</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7432830933069484</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6245046981364883</v>
+        <v>0.6238955199080484</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8419181137347425</v>
+        <v>0.8444285715250378</v>
       </c>
     </row>
     <row r="20">
@@ -2048,19 +2048,19 @@
         <v>15865</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9770</v>
+        <v>9614</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>23206</v>
+        <v>23244</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2567169066930516</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1580818862652575</v>
+        <v>0.1555714284749626</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3754953018635111</v>
+        <v>0.3761044800919518</v>
       </c>
     </row>
     <row r="21">
@@ -2110,19 +2110,19 @@
         <v>320425</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>302046</v>
+        <v>302711</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>336266</v>
+        <v>336075</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7795872303773792</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7348723536541542</v>
+        <v>0.7364887014434621</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.818127452392783</v>
+        <v>0.8176638541640596</v>
       </c>
     </row>
     <row r="23">
@@ -2139,19 +2139,19 @@
         <v>90594</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>74753</v>
+        <v>74944</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>108973</v>
+        <v>108308</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2204127696226209</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.181872547607217</v>
+        <v>0.1823361458359403</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2651276463458457</v>
+        <v>0.2635112985565375</v>
       </c>
     </row>
     <row r="24">
@@ -2201,19 +2201,19 @@
         <v>414896</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>395439</v>
+        <v>396574</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>430445</v>
+        <v>433214</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8243794268250424</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.785718365931543</v>
+        <v>0.7879743754219994</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8552732782402969</v>
+        <v>0.860776836489998</v>
       </c>
     </row>
     <row r="26">
@@ -2230,19 +2230,19 @@
         <v>88387</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>72838</v>
+        <v>70069</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>107844</v>
+        <v>106709</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1756205731749576</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1447267217597031</v>
+        <v>0.1392231635100023</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2142816340684573</v>
+        <v>0.2120256245780007</v>
       </c>
     </row>
     <row r="27">
@@ -2292,19 +2292,19 @@
         <v>1800635</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1762300</v>
+        <v>1764560</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1833682</v>
+        <v>1836028</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8360761465892808</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8182760564829431</v>
+        <v>0.8193256852691897</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.851420511165801</v>
+        <v>0.8525095483326741</v>
       </c>
     </row>
     <row r="29">
@@ -2321,19 +2321,19 @@
         <v>353039</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>319992</v>
+        <v>317646</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>391374</v>
+        <v>389114</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1639238534107192</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1485794888341993</v>
+        <v>0.1474904516673259</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1817239435170573</v>
+        <v>0.1806743147308115</v>
       </c>
     </row>
     <row r="30">
@@ -2505,19 +2505,19 @@
         <v>155684</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>148309</v>
+        <v>148101</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>163136</v>
+        <v>162062</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8532790184449552</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8128550083777396</v>
+        <v>0.811715849547691</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8941199227224643</v>
+        <v>0.8882374649609992</v>
       </c>
     </row>
     <row r="5">
@@ -2534,19 +2534,19 @@
         <v>26770</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19318</v>
+        <v>20392</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34145</v>
+        <v>34353</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1467209815550448</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1058800772775358</v>
+        <v>0.1117625350390006</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1871449916222604</v>
+        <v>0.1882841504523084</v>
       </c>
     </row>
     <row r="6">
@@ -2596,19 +2596,19 @@
         <v>179564</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>167463</v>
+        <v>167109</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>190565</v>
+        <v>191048</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.7427937670157005</v>
+        <v>0.7427937670157007</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6927354688783238</v>
+        <v>0.6912690796284081</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7882994643612379</v>
+        <v>0.7902962965508151</v>
       </c>
     </row>
     <row r="8">
@@ -2625,19 +2625,19 @@
         <v>62178</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>51177</v>
+        <v>50694</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>74279</v>
+        <v>74633</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2572062329842993</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2117005356387621</v>
+        <v>0.2097037034491848</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3072645311216763</v>
+        <v>0.3087309203715918</v>
       </c>
     </row>
     <row r="9">
@@ -2687,19 +2687,19 @@
         <v>132723</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>123653</v>
+        <v>124009</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>140377</v>
+        <v>140028</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8267903029783861</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7702901969270671</v>
+        <v>0.7725100427906003</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8744709749675023</v>
+        <v>0.8722971613313405</v>
       </c>
     </row>
     <row r="11">
@@ -2716,19 +2716,19 @@
         <v>27805</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20151</v>
+        <v>20500</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>36875</v>
+        <v>36519</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1732096970216138</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1255290250324971</v>
+        <v>0.1277028386686594</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2297098030729325</v>
+        <v>0.2274899572093993</v>
       </c>
     </row>
     <row r="12">
@@ -2778,19 +2778,19 @@
         <v>166669</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>156993</v>
+        <v>156563</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>176240</v>
+        <v>176165</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7949434191612679</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7487887175413753</v>
+        <v>0.7467393298468552</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8405902263232194</v>
+        <v>0.84023504818391</v>
       </c>
     </row>
     <row r="14">
@@ -2807,19 +2807,19 @@
         <v>42993</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>33422</v>
+        <v>33497</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>52669</v>
+        <v>53099</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2050565808387322</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1594097736767805</v>
+        <v>0.1597649518160904</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2512112824586247</v>
+        <v>0.2532606701531449</v>
       </c>
     </row>
     <row r="15">
@@ -2869,19 +2869,19 @@
         <v>47770</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>43100</v>
+        <v>43148</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52204</v>
+        <v>52248</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.739930431074591</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6675924217250793</v>
+        <v>0.6683430349083431</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8086127708007702</v>
+        <v>0.8092939592328197</v>
       </c>
     </row>
     <row r="17">
@@ -2898,19 +2898,19 @@
         <v>16790</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12356</v>
+        <v>12312</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21460</v>
+        <v>21412</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2600695689254089</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1913872291992298</v>
+        <v>0.1907060407671803</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3324075782749205</v>
+        <v>0.3316569650916569</v>
       </c>
     </row>
     <row r="18">
@@ -2960,19 +2960,19 @@
         <v>72571</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>66217</v>
+        <v>66455</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>77490</v>
+        <v>77602</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.816135219606082</v>
+        <v>0.8161352196060818</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7446770671516383</v>
+        <v>0.7473515943214141</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8714604050229446</v>
+        <v>0.8727226649388257</v>
       </c>
     </row>
     <row r="20">
@@ -2989,19 +2989,19 @@
         <v>16349</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11430</v>
+        <v>11318</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22703</v>
+        <v>22465</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.183864780393918</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1285395949770553</v>
+        <v>0.1272773350611742</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2553229328483617</v>
+        <v>0.2526484056785857</v>
       </c>
     </row>
     <row r="21">
@@ -3051,19 +3051,19 @@
         <v>229813</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>213492</v>
+        <v>212339</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>248369</v>
+        <v>249136</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5831034094296949</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5416926259099452</v>
+        <v>0.5387683542648775</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6301872523967063</v>
+        <v>0.6321312078986803</v>
       </c>
     </row>
     <row r="23">
@@ -3080,19 +3080,19 @@
         <v>164307</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>145751</v>
+        <v>144984</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>180628</v>
+        <v>181781</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.416896590570305</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3698127476032936</v>
+        <v>0.3678687921013196</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4583073740900541</v>
+        <v>0.4612316457351221</v>
       </c>
     </row>
     <row r="24">
@@ -3142,19 +3142,19 @@
         <v>229513</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>218725</v>
+        <v>219491</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>238332</v>
+        <v>238502</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.8579107089069382</v>
+        <v>0.8579107089069383</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8175856636251222</v>
+        <v>0.8204469724406828</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8908722957295085</v>
+        <v>0.8915096460259458</v>
       </c>
     </row>
     <row r="26">
@@ -3171,19 +3171,19 @@
         <v>38013</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>29194</v>
+        <v>29024</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>48801</v>
+        <v>48035</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1420892910930618</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1091277042704913</v>
+        <v>0.1084903539740542</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1824143363748776</v>
+        <v>0.1795530275593175</v>
       </c>
     </row>
     <row r="27">
@@ -3233,19 +3233,19 @@
         <v>1214309</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1184780</v>
+        <v>1185126</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1242317</v>
+        <v>1242237</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.7544571578083872</v>
+        <v>0.7544571578083874</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.736110788253831</v>
+        <v>0.7363259154922155</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7718590144297249</v>
+        <v>0.7718090527775079</v>
       </c>
     </row>
     <row r="29">
@@ -3262,19 +3262,19 @@
         <v>395204</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>367196</v>
+        <v>367276</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>424733</v>
+        <v>424387</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2455428421916127</v>
+        <v>0.2455428421916128</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2281409855702751</v>
+        <v>0.2281909472224918</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2638892117461692</v>
+        <v>0.2636740845077846</v>
       </c>
     </row>
     <row r="30">
